--- a/Modulo5/src/out/info_estados/Florida.xlsx
+++ b/Modulo5/src/out/info_estados/Florida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="94">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>F</t>
@@ -725,14 +731,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>17591</v>
       </c>
       <c r="M2">
         <v>12001</v>
@@ -769,14 +775,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>17734</v>
       </c>
       <c r="M3">
         <v>12001</v>
@@ -813,14 +819,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>9242</v>
       </c>
       <c r="M4">
         <v>12001</v>
@@ -857,14 +863,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1903</v>
       </c>
       <c r="M5">
         <v>12001</v>
@@ -901,14 +907,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>6980</v>
       </c>
       <c r="M6">
         <v>12001</v>
@@ -945,14 +951,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5214</v>
       </c>
       <c r="M7">
         <v>12001</v>
@@ -989,14 +995,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>806</v>
       </c>
       <c r="M8">
         <v>12003</v>
@@ -1033,14 +1039,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>655</v>
       </c>
       <c r="M9">
         <v>12003</v>
@@ -1077,14 +1083,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>2164</v>
       </c>
       <c r="M10">
         <v>12003</v>
@@ -1121,14 +1127,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M11">
         <v>12003</v>
@@ -1165,14 +1171,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>770</v>
       </c>
       <c r="M12">
         <v>12003</v>
@@ -1209,14 +1215,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>972</v>
       </c>
       <c r="M13">
         <v>12003</v>
@@ -1253,14 +1259,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4132</v>
       </c>
       <c r="M14">
         <v>12005</v>
@@ -1297,14 +1303,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>5210</v>
       </c>
       <c r="M15">
         <v>12005</v>
@@ -1341,14 +1347,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>14427</v>
       </c>
       <c r="M16">
         <v>12005</v>
@@ -1385,14 +1391,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1413</v>
       </c>
       <c r="M17">
         <v>12005</v>
@@ -1429,14 +1435,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>92</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>5833</v>
       </c>
       <c r="M18">
         <v>12005</v>
@@ -1473,14 +1479,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>7154</v>
       </c>
       <c r="M19">
         <v>12005</v>
@@ -1517,14 +1523,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>909</v>
       </c>
       <c r="M20">
         <v>12007</v>
@@ -1561,14 +1567,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="M21">
         <v>12007</v>
@@ -1605,14 +1611,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1803</v>
       </c>
       <c r="M22">
         <v>12007</v>
@@ -1649,14 +1655,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M23">
         <v>12007</v>
@@ -1693,14 +1699,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>701</v>
       </c>
       <c r="M24">
         <v>12007</v>
@@ -1737,14 +1743,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>965</v>
       </c>
       <c r="M25">
         <v>12007</v>
@@ -1781,14 +1787,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>91</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>20084</v>
       </c>
       <c r="M26">
         <v>12009</v>
@@ -1825,14 +1831,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>91</v>
       </c>
       <c r="K27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>31836</v>
       </c>
       <c r="M27">
         <v>12009</v>
@@ -1869,14 +1875,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>45484</v>
       </c>
       <c r="M28">
         <v>12009</v>
@@ -1913,14 +1919,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>92</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>6251</v>
       </c>
       <c r="M29">
         <v>12009</v>
@@ -1957,14 +1963,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>24331</v>
       </c>
       <c r="M30">
         <v>12009</v>
@@ -2001,14 +2007,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>92</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>19335</v>
       </c>
       <c r="M31">
         <v>12009</v>
@@ -2045,14 +2051,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>91</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>48331</v>
       </c>
       <c r="M32">
         <v>12011</v>
@@ -2089,14 +2095,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>91</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>132528</v>
       </c>
       <c r="M33">
         <v>12011</v>
@@ -2133,14 +2139,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>92</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>52760</v>
       </c>
       <c r="M34">
         <v>12011</v>
@@ -2177,14 +2183,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>92</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>7675</v>
       </c>
       <c r="M35">
         <v>12011</v>
@@ -2221,14 +2227,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>92</v>
       </c>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>30371</v>
       </c>
       <c r="M36">
         <v>12011</v>
@@ -2265,14 +2271,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>92</v>
       </c>
       <c r="K37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>13774</v>
       </c>
       <c r="M37">
         <v>12011</v>
@@ -2309,14 +2315,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>91</v>
       </c>
       <c r="K38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="M38">
         <v>12013</v>
@@ -2353,14 +2359,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="M39">
         <v>12013</v>
@@ -2397,14 +2403,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>92</v>
       </c>
       <c r="K40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="M40">
         <v>12013</v>
@@ -2441,14 +2447,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>92</v>
       </c>
       <c r="K41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M41">
         <v>12013</v>
@@ -2485,14 +2491,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>92</v>
       </c>
       <c r="K42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M42">
         <v>12013</v>
@@ -2529,14 +2535,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>92</v>
       </c>
       <c r="K43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="M43">
         <v>12013</v>
@@ -2573,14 +2579,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>91</v>
       </c>
       <c r="K44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4635</v>
       </c>
       <c r="M44">
         <v>12015</v>
@@ -2617,14 +2623,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>91</v>
       </c>
       <c r="K45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>8126</v>
       </c>
       <c r="M45">
         <v>12015</v>
@@ -2661,14 +2667,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>92</v>
       </c>
       <c r="K46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>16526</v>
       </c>
       <c r="M46">
         <v>12015</v>
@@ -2705,14 +2711,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>92</v>
       </c>
       <c r="K47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2315</v>
       </c>
       <c r="M47">
         <v>12015</v>
@@ -2749,14 +2755,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>92</v>
       </c>
       <c r="K48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>6107</v>
       </c>
       <c r="M48">
         <v>12015</v>
@@ -2793,14 +2799,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>92</v>
       </c>
       <c r="K49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>4215</v>
       </c>
       <c r="M49">
         <v>12015</v>
@@ -2837,14 +2843,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>91</v>
       </c>
       <c r="K50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>4777</v>
       </c>
       <c r="M50">
         <v>12017</v>
@@ -2881,14 +2887,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>91</v>
       </c>
       <c r="K51" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>6864</v>
       </c>
       <c r="M51">
         <v>12017</v>
@@ -2925,14 +2931,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>92</v>
       </c>
       <c r="K52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>15233</v>
       </c>
       <c r="M52">
         <v>12017</v>
@@ -2969,14 +2975,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>92</v>
       </c>
       <c r="K53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>1708</v>
       </c>
       <c r="M53">
         <v>12017</v>
@@ -3013,14 +3019,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>92</v>
       </c>
       <c r="K54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>4994</v>
       </c>
       <c r="M54">
         <v>12017</v>
@@ -3057,14 +3063,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>92</v>
       </c>
       <c r="K55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>4863</v>
       </c>
       <c r="M55">
         <v>12017</v>
@@ -3101,14 +3107,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>91</v>
       </c>
       <c r="K56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>3699</v>
       </c>
       <c r="M56">
         <v>12019</v>
@@ -3145,14 +3151,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>91</v>
       </c>
       <c r="K57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>5346</v>
       </c>
       <c r="M57">
         <v>12019</v>
@@ -3189,14 +3195,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>92</v>
       </c>
       <c r="K58" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>19375</v>
       </c>
       <c r="M58">
         <v>12019</v>
@@ -3233,14 +3239,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>92</v>
       </c>
       <c r="K59" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>1644</v>
       </c>
       <c r="M59">
         <v>12019</v>
@@ -3277,14 +3283,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>92</v>
       </c>
       <c r="K60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>8472</v>
       </c>
       <c r="M60">
         <v>12019</v>
@@ -3321,14 +3327,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>92</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>7833</v>
       </c>
       <c r="M61">
         <v>12019</v>
@@ -3365,14 +3371,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>91</v>
       </c>
       <c r="K62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>6128</v>
       </c>
       <c r="M62">
         <v>12021</v>
@@ -3409,14 +3415,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>91</v>
       </c>
       <c r="K63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>12713</v>
       </c>
       <c r="M63">
         <v>12021</v>
@@ -3453,14 +3459,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>92</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>30072</v>
       </c>
       <c r="M64">
         <v>12021</v>
@@ -3497,14 +3503,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>92</v>
       </c>
       <c r="K65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>7062</v>
       </c>
       <c r="M65">
         <v>12021</v>
@@ -3541,14 +3547,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>92</v>
       </c>
       <c r="K66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>15595</v>
       </c>
       <c r="M66">
         <v>12021</v>
@@ -3585,14 +3591,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>92</v>
       </c>
       <c r="K67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>10556</v>
       </c>
       <c r="M67">
         <v>12021</v>
@@ -3629,14 +3635,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>91</v>
       </c>
       <c r="K68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>1677</v>
       </c>
       <c r="M68">
         <v>12023</v>
@@ -3673,14 +3679,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>91</v>
       </c>
       <c r="K69" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>2300</v>
       </c>
       <c r="M69">
         <v>12023</v>
@@ -3717,14 +3723,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>92</v>
       </c>
       <c r="K70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>4020</v>
       </c>
       <c r="M70">
         <v>12023</v>
@@ -3761,14 +3767,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>92</v>
       </c>
       <c r="K71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="M71">
         <v>12023</v>
@@ -3805,14 +3811,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>92</v>
       </c>
       <c r="K72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>1437</v>
       </c>
       <c r="M72">
         <v>12023</v>
@@ -3849,14 +3855,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>92</v>
       </c>
       <c r="K73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>2439</v>
       </c>
       <c r="M73">
         <v>12023</v>
@@ -3893,14 +3899,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>91</v>
       </c>
       <c r="K74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>727</v>
       </c>
       <c r="M74">
         <v>12027</v>
@@ -3937,14 +3943,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>988</v>
       </c>
       <c r="M75">
         <v>12027</v>
@@ -3981,14 +3987,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>92</v>
       </c>
       <c r="K76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>1446</v>
       </c>
       <c r="M76">
         <v>12027</v>
@@ -4025,14 +4031,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>92</v>
       </c>
       <c r="K77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="M77">
         <v>12027</v>
@@ -4069,14 +4075,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>92</v>
       </c>
       <c r="K78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="M78">
         <v>12027</v>
@@ -4113,14 +4119,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>92</v>
       </c>
       <c r="K79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>453</v>
       </c>
       <c r="M79">
         <v>12027</v>
@@ -4157,14 +4163,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>91</v>
       </c>
       <c r="K80" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="M80">
         <v>12029</v>
@@ -4201,14 +4207,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>91</v>
       </c>
       <c r="K81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="M81">
         <v>12029</v>
@@ -4245,14 +4251,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>92</v>
       </c>
       <c r="K82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1104</v>
       </c>
       <c r="M82">
         <v>12029</v>
@@ -4289,14 +4295,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>92</v>
       </c>
       <c r="K83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M83">
         <v>12029</v>
@@ -4333,14 +4339,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>92</v>
       </c>
       <c r="K84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M84">
         <v>12029</v>
@@ -4377,14 +4383,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>92</v>
       </c>
       <c r="K85" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M85">
         <v>12029</v>
@@ -4421,14 +4427,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>91</v>
       </c>
       <c r="K86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>26717</v>
       </c>
       <c r="M86">
         <v>12031</v>
@@ -4465,14 +4471,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>58633</v>
       </c>
       <c r="M87">
         <v>12031</v>
@@ -4509,14 +4515,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>52589</v>
       </c>
       <c r="M88">
         <v>12031</v>
@@ -4553,14 +4559,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>5639</v>
       </c>
       <c r="M89">
         <v>12031</v>
@@ -4597,14 +4603,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>92</v>
       </c>
       <c r="K90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>29845</v>
       </c>
       <c r="M90">
         <v>12031</v>
@@ -4641,14 +4647,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>92</v>
       </c>
       <c r="K91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>19958</v>
       </c>
       <c r="M91">
         <v>12031</v>
@@ -4685,14 +4691,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>91</v>
       </c>
       <c r="K92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>9319</v>
       </c>
       <c r="M92">
         <v>12033</v>
@@ -4729,14 +4735,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>91</v>
       </c>
       <c r="K93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>16766</v>
       </c>
       <c r="M93">
         <v>12033</v>
@@ -4773,14 +4779,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>20857</v>
       </c>
       <c r="M94">
         <v>12033</v>
@@ -4817,14 +4823,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>92</v>
       </c>
       <c r="K95" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3093</v>
       </c>
       <c r="M95">
         <v>12033</v>
@@ -4861,14 +4867,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>92</v>
       </c>
       <c r="K96" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>12709</v>
       </c>
       <c r="M96">
         <v>12033</v>
@@ -4905,14 +4911,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>92</v>
       </c>
       <c r="K97" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>11366</v>
       </c>
       <c r="M97">
         <v>12033</v>
@@ -4949,14 +4955,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>91</v>
       </c>
       <c r="K98" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>2978</v>
       </c>
       <c r="M98">
         <v>12035</v>
@@ -4993,14 +4999,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>91</v>
       </c>
       <c r="K99" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>6153</v>
       </c>
       <c r="M99">
         <v>12035</v>
@@ -5037,14 +5043,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>92</v>
       </c>
       <c r="K100" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>9685</v>
       </c>
       <c r="M100">
         <v>12035</v>
@@ -5081,14 +5087,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>92</v>
       </c>
       <c r="K101" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1030</v>
       </c>
       <c r="M101">
         <v>12035</v>
@@ -5125,14 +5131,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>92</v>
       </c>
       <c r="K102" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3362</v>
       </c>
       <c r="M102">
         <v>12035</v>
@@ -5169,14 +5175,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>92</v>
       </c>
       <c r="K103" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>2386</v>
       </c>
       <c r="M103">
         <v>12035</v>
@@ -5213,14 +5219,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>91</v>
       </c>
       <c r="K104" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>648</v>
       </c>
       <c r="M104">
         <v>12037</v>
@@ -5257,14 +5263,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>91</v>
       </c>
       <c r="K105" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>666</v>
       </c>
       <c r="M105">
         <v>12037</v>
@@ -5301,14 +5307,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>92</v>
       </c>
       <c r="K106" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="M106">
         <v>12037</v>
@@ -5345,14 +5351,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>92</v>
       </c>
       <c r="K107" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M107">
         <v>12037</v>
@@ -5389,14 +5395,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>92</v>
       </c>
       <c r="K108" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="M108">
         <v>12037</v>
@@ -5433,14 +5439,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>92</v>
       </c>
       <c r="K109" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="M109">
         <v>12037</v>
@@ -5477,14 +5483,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>91</v>
       </c>
       <c r="K110" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>1945</v>
       </c>
       <c r="M110">
         <v>12039</v>
@@ -5521,14 +5527,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>91</v>
       </c>
       <c r="K111" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>7447</v>
       </c>
       <c r="M111">
         <v>12039</v>
@@ -5565,14 +5571,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>92</v>
       </c>
       <c r="K112" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>996</v>
       </c>
       <c r="M112">
         <v>12039</v>
@@ -5609,14 +5615,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>92</v>
       </c>
       <c r="K113" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M113">
         <v>12039</v>
@@ -5653,14 +5659,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>92</v>
       </c>
       <c r="K114" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="M114">
         <v>12039</v>
@@ -5697,14 +5703,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>92</v>
       </c>
       <c r="K115" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>743</v>
       </c>
       <c r="M115">
         <v>12039</v>
@@ -5741,14 +5747,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>91</v>
       </c>
       <c r="K116" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>579</v>
       </c>
       <c r="M116">
         <v>12041</v>
@@ -5785,14 +5791,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>91</v>
       </c>
       <c r="K117" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="M117">
         <v>12041</v>
@@ -5829,14 +5835,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>92</v>
       </c>
       <c r="K118" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>1861</v>
       </c>
       <c r="M118">
         <v>12041</v>
@@ -5873,14 +5879,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>92</v>
       </c>
       <c r="K119" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M119">
         <v>12041</v>
@@ -5917,14 +5923,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>92</v>
       </c>
       <c r="K120" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="M120">
         <v>12041</v>
@@ -5961,14 +5967,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>92</v>
       </c>
       <c r="K121" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>778</v>
       </c>
       <c r="M121">
         <v>12041</v>
@@ -6005,14 +6011,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>91</v>
       </c>
       <c r="K122" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="M122">
         <v>12043</v>
@@ -6049,14 +6055,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>91</v>
       </c>
       <c r="K123" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="M123">
         <v>12043</v>
@@ -6093,14 +6099,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>92</v>
       </c>
       <c r="K124" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>633</v>
       </c>
       <c r="M124">
         <v>12043</v>
@@ -6137,14 +6143,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>92</v>
       </c>
       <c r="K125" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M125">
         <v>12043</v>
@@ -6181,14 +6187,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>92</v>
       </c>
       <c r="K126" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="M126">
         <v>12043</v>
@@ -6225,14 +6231,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>92</v>
       </c>
       <c r="K127" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="M127">
         <v>12043</v>
@@ -6269,14 +6275,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>91</v>
       </c>
       <c r="K128" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>521</v>
       </c>
       <c r="M128">
         <v>12045</v>
@@ -6313,14 +6319,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>91</v>
       </c>
       <c r="K129" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>569</v>
       </c>
       <c r="M129">
         <v>12045</v>
@@ -6357,14 +6363,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>92</v>
       </c>
       <c r="K130" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1039</v>
       </c>
       <c r="M130">
         <v>12045</v>
@@ -6401,14 +6407,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>92</v>
       </c>
       <c r="K131" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M131">
         <v>12045</v>
@@ -6445,14 +6451,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>92</v>
       </c>
       <c r="K132" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="M132">
         <v>12045</v>
@@ -6489,14 +6495,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>92</v>
       </c>
       <c r="K133" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>518</v>
       </c>
       <c r="M133">
         <v>12045</v>
@@ -6533,14 +6539,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>91</v>
       </c>
       <c r="K134" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="M134">
         <v>12047</v>
@@ -6577,14 +6583,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>91</v>
       </c>
       <c r="K135" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>759</v>
       </c>
       <c r="M135">
         <v>12047</v>
@@ -6621,14 +6627,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>92</v>
       </c>
       <c r="K136" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>582</v>
       </c>
       <c r="M136">
         <v>12047</v>
@@ -6665,14 +6671,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>92</v>
       </c>
       <c r="K137" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M137">
         <v>12047</v>
@@ -6709,14 +6715,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>92</v>
       </c>
       <c r="K138" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M138">
         <v>12047</v>
@@ -6753,14 +6759,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>92</v>
       </c>
       <c r="K139" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="M139">
         <v>12047</v>
@@ -6797,14 +6803,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>91</v>
       </c>
       <c r="K140" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="M140">
         <v>12049</v>
@@ -6841,14 +6847,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>91</v>
       </c>
       <c r="K141" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>530</v>
       </c>
       <c r="M141">
         <v>12049</v>
@@ -6885,14 +6891,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>92</v>
       </c>
       <c r="K142" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>1114</v>
       </c>
       <c r="M142">
         <v>12049</v>
@@ -6929,14 +6935,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>92</v>
       </c>
       <c r="K143" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M143">
         <v>12049</v>
@@ -6973,14 +6979,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>92</v>
       </c>
       <c r="K144" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="M144">
         <v>12049</v>
@@ -7017,14 +7023,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>92</v>
       </c>
       <c r="K145" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>520</v>
       </c>
       <c r="M145">
         <v>12049</v>
@@ -7061,14 +7067,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>91</v>
       </c>
       <c r="K146" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>648</v>
       </c>
       <c r="M146">
         <v>12051</v>
@@ -7105,14 +7111,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>91</v>
       </c>
       <c r="K147" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>1157</v>
       </c>
       <c r="M147">
         <v>12051</v>
@@ -7149,14 +7155,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>92</v>
       </c>
       <c r="K148" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>1291</v>
       </c>
       <c r="M148">
         <v>12051</v>
@@ -7193,14 +7199,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>92</v>
       </c>
       <c r="K149" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M149">
         <v>12051</v>
@@ -7237,14 +7243,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>92</v>
       </c>
       <c r="K150" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="M150">
         <v>12051</v>
@@ -7281,14 +7287,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>92</v>
       </c>
       <c r="K151" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="M151">
         <v>12051</v>
@@ -7325,14 +7331,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>91</v>
       </c>
       <c r="K152" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>5513</v>
       </c>
       <c r="M152">
         <v>12053</v>
@@ -7369,14 +7375,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>91</v>
       </c>
       <c r="K153" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>8883</v>
       </c>
       <c r="M153">
         <v>12053</v>
@@ -7413,14 +7419,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>92</v>
       </c>
       <c r="K154" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>15480</v>
       </c>
       <c r="M154">
         <v>12053</v>
@@ -7457,14 +7463,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>92</v>
       </c>
       <c r="K155" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>1434</v>
       </c>
       <c r="M155">
         <v>12053</v>
@@ -7501,14 +7507,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>92</v>
       </c>
       <c r="K156" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>4744</v>
       </c>
       <c r="M156">
         <v>12053</v>
@@ -7545,14 +7551,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>92</v>
       </c>
       <c r="K157" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>4739</v>
       </c>
       <c r="M157">
         <v>12053</v>
@@ -7589,14 +7595,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>91</v>
       </c>
       <c r="K158" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>2055</v>
       </c>
       <c r="M158">
         <v>12055</v>
@@ -7633,14 +7639,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>91</v>
       </c>
       <c r="K159" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3712</v>
       </c>
       <c r="M159">
         <v>12055</v>
@@ -7677,14 +7683,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>92</v>
       </c>
       <c r="K160" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>7481</v>
       </c>
       <c r="M160">
         <v>12055</v>
@@ -7721,14 +7727,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>92</v>
       </c>
       <c r="K161" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>781</v>
       </c>
       <c r="M161">
         <v>12055</v>
@@ -7765,14 +7771,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>92</v>
       </c>
       <c r="K162" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3148</v>
       </c>
       <c r="M162">
         <v>12055</v>
@@ -7809,14 +7815,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>92</v>
       </c>
       <c r="K163" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3056</v>
       </c>
       <c r="M163">
         <v>12055</v>
@@ -7853,14 +7859,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>91</v>
       </c>
       <c r="K164" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>38506</v>
       </c>
       <c r="M164">
         <v>12057</v>
@@ -7897,14 +7903,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>91</v>
       </c>
       <c r="K165" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>68937</v>
       </c>
       <c r="M165">
         <v>12057</v>
@@ -7941,14 +7947,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>92</v>
       </c>
       <c r="K166" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>53063</v>
       </c>
       <c r="M166">
         <v>12057</v>
@@ -7985,14 +7991,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>92</v>
       </c>
       <c r="K167" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>9148</v>
       </c>
       <c r="M167">
         <v>12057</v>
@@ -8029,14 +8035,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>92</v>
       </c>
       <c r="K168" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>37085</v>
       </c>
       <c r="M168">
         <v>12057</v>
@@ -8073,14 +8079,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>92</v>
       </c>
       <c r="K169" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>25969</v>
       </c>
       <c r="M169">
         <v>12057</v>
@@ -8117,14 +8123,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>91</v>
       </c>
       <c r="K170" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>620</v>
       </c>
       <c r="M170">
         <v>12059</v>
@@ -8161,14 +8167,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>91</v>
       </c>
       <c r="K171" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="M171">
         <v>12059</v>
@@ -8205,14 +8211,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>92</v>
       </c>
       <c r="K172" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>1240</v>
       </c>
       <c r="M172">
         <v>12059</v>
@@ -8249,14 +8255,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>92</v>
       </c>
       <c r="K173" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M173">
         <v>12059</v>
@@ -8293,14 +8299,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>92</v>
       </c>
       <c r="K174" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="M174">
         <v>12059</v>
@@ -8337,14 +8343,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>92</v>
       </c>
       <c r="K175" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>813</v>
       </c>
       <c r="M175">
         <v>12059</v>
@@ -8381,14 +8387,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>91</v>
       </c>
       <c r="K176" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3927</v>
       </c>
       <c r="M176">
         <v>12061</v>
@@ -8425,14 +8431,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>91</v>
       </c>
       <c r="K177" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>6898</v>
       </c>
       <c r="M177">
         <v>12061</v>
@@ -8469,14 +8475,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>92</v>
       </c>
       <c r="K178" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>13679</v>
       </c>
       <c r="M178">
         <v>12061</v>
@@ -8513,14 +8519,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>92</v>
       </c>
       <c r="K179" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>2939</v>
       </c>
       <c r="M179">
         <v>12061</v>
@@ -8557,14 +8563,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>92</v>
       </c>
       <c r="K180" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>6575</v>
       </c>
       <c r="M180">
         <v>12061</v>
@@ -8601,14 +8607,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>92</v>
       </c>
       <c r="K181" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>4192</v>
       </c>
       <c r="M181">
         <v>12061</v>
@@ -8645,14 +8651,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>91</v>
       </c>
       <c r="K182" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>1841</v>
       </c>
       <c r="M182">
         <v>12063</v>
@@ -8689,14 +8695,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>91</v>
       </c>
       <c r="K183" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>2799</v>
       </c>
       <c r="M183">
         <v>12063</v>
@@ -8733,14 +8739,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>92</v>
       </c>
       <c r="K184" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>2487</v>
       </c>
       <c r="M184">
         <v>12063</v>
@@ -8777,14 +8783,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>92</v>
       </c>
       <c r="K185" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="M185">
         <v>12063</v>
@@ -8821,14 +8827,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>92</v>
       </c>
       <c r="K186" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>909</v>
       </c>
       <c r="M186">
         <v>12063</v>
@@ -8865,14 +8871,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>92</v>
       </c>
       <c r="K187" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>1356</v>
       </c>
       <c r="M187">
         <v>12063</v>
@@ -8909,14 +8915,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>91</v>
       </c>
       <c r="K188" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>763</v>
       </c>
       <c r="M188">
         <v>12065</v>
@@ -8953,14 +8959,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>91</v>
       </c>
       <c r="K189" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>1672</v>
       </c>
       <c r="M189">
         <v>12065</v>
@@ -8997,14 +9003,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>92</v>
       </c>
       <c r="K190" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>677</v>
       </c>
       <c r="M190">
         <v>12065</v>
@@ -9041,14 +9047,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>92</v>
       </c>
       <c r="K191" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M191">
         <v>12065</v>
@@ -9085,14 +9091,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>92</v>
       </c>
       <c r="K192" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="M192">
         <v>12065</v>
@@ -9129,14 +9135,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>92</v>
       </c>
       <c r="K193" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>538</v>
       </c>
       <c r="M193">
         <v>12065</v>
@@ -9173,14 +9179,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>91</v>
       </c>
       <c r="K194" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="M194">
         <v>12067</v>
@@ -9217,14 +9223,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>91</v>
       </c>
       <c r="K195" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="M195">
         <v>12067</v>
@@ -9261,14 +9267,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>92</v>
       </c>
       <c r="K196" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>557</v>
       </c>
       <c r="M196">
         <v>12067</v>
@@ -9305,14 +9311,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>92</v>
       </c>
       <c r="K197" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M197">
         <v>12067</v>
@@ -9349,14 +9355,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>92</v>
       </c>
       <c r="K198" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M198">
         <v>12067</v>
@@ -9393,14 +9399,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>92</v>
       </c>
       <c r="K199" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="M199">
         <v>12067</v>
@@ -9437,14 +9443,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>91</v>
       </c>
       <c r="K200" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>8466</v>
       </c>
       <c r="M200">
         <v>12069</v>
@@ -9481,14 +9487,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>91</v>
       </c>
       <c r="K201" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>15915</v>
       </c>
       <c r="M201">
         <v>12069</v>
@@ -9525,14 +9531,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>92</v>
       </c>
       <c r="K202" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>26394</v>
       </c>
       <c r="M202">
         <v>12069</v>
@@ -9569,14 +9575,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>92</v>
       </c>
       <c r="K203" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>2917</v>
       </c>
       <c r="M203">
         <v>12069</v>
@@ -9613,14 +9619,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>92</v>
       </c>
       <c r="K204" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>12188</v>
       </c>
       <c r="M204">
         <v>12069</v>
@@ -9657,14 +9663,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>92</v>
       </c>
       <c r="K205" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>10608</v>
       </c>
       <c r="M205">
         <v>12069</v>
@@ -9701,14 +9707,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>91</v>
       </c>
       <c r="K206" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>15625</v>
       </c>
       <c r="M206">
         <v>12071</v>
@@ -9745,14 +9751,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>91</v>
       </c>
       <c r="K207" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>27941</v>
       </c>
       <c r="M207">
         <v>12071</v>
@@ -9789,14 +9795,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>92</v>
       </c>
       <c r="K208" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>51660</v>
       </c>
       <c r="M208">
         <v>12071</v>
@@ -9833,14 +9839,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>92</v>
       </c>
       <c r="K209" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>8620</v>
       </c>
       <c r="M209">
         <v>12071</v>
@@ -9877,14 +9883,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>92</v>
       </c>
       <c r="K210" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>23940</v>
       </c>
       <c r="M210">
         <v>12071</v>
@@ -9921,14 +9927,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>92</v>
       </c>
       <c r="K211" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>19156</v>
       </c>
       <c r="M211">
         <v>12071</v>
@@ -9965,14 +9971,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>91</v>
       </c>
       <c r="K212" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>19867</v>
       </c>
       <c r="M212">
         <v>12073</v>
@@ -10009,14 +10015,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>91</v>
       </c>
       <c r="K213" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>27334</v>
       </c>
       <c r="M213">
         <v>12073</v>
@@ -10053,14 +10059,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>92</v>
       </c>
       <c r="K214" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>9084</v>
       </c>
       <c r="M214">
         <v>12073</v>
@@ -10097,14 +10103,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>92</v>
       </c>
       <c r="K215" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>2764</v>
       </c>
       <c r="M215">
         <v>12073</v>
@@ -10141,14 +10147,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>92</v>
       </c>
       <c r="K216" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>8817</v>
       </c>
       <c r="M216">
         <v>12073</v>
@@ -10185,14 +10191,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>92</v>
       </c>
       <c r="K217" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>8643</v>
       </c>
       <c r="M217">
         <v>12073</v>
@@ -10229,14 +10235,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>91</v>
       </c>
       <c r="K218" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>1355</v>
       </c>
       <c r="M218">
         <v>12075</v>
@@ -10273,14 +10279,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>91</v>
       </c>
       <c r="K219" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>1571</v>
       </c>
       <c r="M219">
         <v>12075</v>
@@ -10317,14 +10323,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>92</v>
       </c>
       <c r="K220" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>3746</v>
       </c>
       <c r="M220">
         <v>12075</v>
@@ -10361,14 +10367,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>92</v>
       </c>
       <c r="K221" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="M221">
         <v>12075</v>
@@ -10405,14 +10411,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>92</v>
       </c>
       <c r="K222" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>995</v>
       </c>
       <c r="M222">
         <v>12075</v>
@@ -10449,14 +10455,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>92</v>
       </c>
       <c r="K223" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>1276</v>
       </c>
       <c r="M223">
         <v>12075</v>
@@ -10493,14 +10499,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>91</v>
       </c>
       <c r="K224" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="M224">
         <v>12077</v>
@@ -10537,14 +10543,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>91</v>
       </c>
       <c r="K225" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="M225">
         <v>12077</v>
@@ -10581,14 +10587,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>92</v>
       </c>
       <c r="K226" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="M226">
         <v>12077</v>
@@ -10625,14 +10631,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>92</v>
       </c>
       <c r="K227" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M227">
         <v>12077</v>
@@ -10669,14 +10675,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>92</v>
       </c>
       <c r="K228" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M228">
         <v>12077</v>
@@ -10713,14 +10719,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>92</v>
       </c>
       <c r="K229" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="M229">
         <v>12077</v>
@@ -10757,14 +10763,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>91</v>
       </c>
       <c r="K230" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>742</v>
       </c>
       <c r="M230">
         <v>12079</v>
@@ -10801,14 +10807,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>91</v>
       </c>
       <c r="K231" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>1543</v>
       </c>
       <c r="M231">
         <v>12079</v>
@@ -10845,14 +10851,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>92</v>
       </c>
       <c r="K232" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>796</v>
       </c>
       <c r="M232">
         <v>12079</v>
@@ -10889,14 +10895,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>92</v>
       </c>
       <c r="K233" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M233">
         <v>12079</v>
@@ -10933,14 +10939,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>92</v>
       </c>
       <c r="K234" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="M234">
         <v>12079</v>
@@ -10977,14 +10983,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>92</v>
       </c>
       <c r="K235" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="M235">
         <v>12079</v>
@@ -11021,14 +11027,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>91</v>
       </c>
       <c r="K236" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>10166</v>
       </c>
       <c r="M236">
         <v>12081</v>
@@ -11065,14 +11071,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>91</v>
       </c>
       <c r="K237" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>18117</v>
       </c>
       <c r="M237">
         <v>12081</v>
@@ -11109,14 +11115,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>92</v>
       </c>
       <c r="K238" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>26321</v>
       </c>
       <c r="M238">
         <v>12081</v>
@@ -11153,14 +11159,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>92</v>
       </c>
       <c r="K239" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>4583</v>
       </c>
       <c r="M239">
         <v>12081</v>
@@ -11197,14 +11203,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>92</v>
       </c>
       <c r="K240" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>13463</v>
       </c>
       <c r="M240">
         <v>12081</v>
@@ -11241,14 +11247,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>92</v>
       </c>
       <c r="K241" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>9410</v>
       </c>
       <c r="M241">
         <v>12081</v>
@@ -11285,14 +11291,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>91</v>
       </c>
       <c r="K242" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>9893</v>
       </c>
       <c r="M242">
         <v>12083</v>
@@ -11329,14 +11335,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>91</v>
       </c>
       <c r="K243" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>18221</v>
       </c>
       <c r="M243">
         <v>12083</v>
@@ -11373,14 +11379,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>92</v>
       </c>
       <c r="K244" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>31371</v>
       </c>
       <c r="M244">
         <v>12083</v>
@@ -11417,14 +11423,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>92</v>
       </c>
       <c r="K245" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>3284</v>
       </c>
       <c r="M245">
         <v>12083</v>
@@ -11461,14 +11467,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>92</v>
       </c>
       <c r="K246" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>11177</v>
       </c>
       <c r="M246">
         <v>12083</v>
@@ -11505,14 +11511,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>92</v>
       </c>
       <c r="K247" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>9872</v>
       </c>
       <c r="M247">
         <v>12083</v>
@@ -11549,14 +11555,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>91</v>
       </c>
       <c r="K248" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>4102</v>
       </c>
       <c r="M248">
         <v>12085</v>
@@ -11593,14 +11599,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>91</v>
       </c>
       <c r="K249" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>6524</v>
       </c>
       <c r="M249">
         <v>12085</v>
@@ -11637,14 +11643,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>92</v>
       </c>
       <c r="K250" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>16066</v>
       </c>
       <c r="M250">
         <v>12085</v>
@@ -11681,14 +11687,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>92</v>
       </c>
       <c r="K251" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3585</v>
       </c>
       <c r="M251">
         <v>12085</v>
@@ -11725,14 +11731,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>92</v>
       </c>
       <c r="K252" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>6756</v>
       </c>
       <c r="M252">
         <v>12085</v>
@@ -11769,14 +11775,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>92</v>
       </c>
       <c r="K253" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>3907</v>
       </c>
       <c r="M253">
         <v>12085</v>
@@ -11813,14 +11819,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>91</v>
       </c>
       <c r="K254" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>42010</v>
       </c>
       <c r="M254">
         <v>12086</v>
@@ -11857,14 +11863,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>91</v>
       </c>
       <c r="K255" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>129468</v>
       </c>
       <c r="M255">
         <v>12086</v>
@@ -11901,14 +11907,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>92</v>
       </c>
       <c r="K256" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>40157</v>
       </c>
       <c r="M256">
         <v>12086</v>
@@ -11945,14 +11951,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>92</v>
       </c>
       <c r="K257" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>5195</v>
       </c>
       <c r="M257">
         <v>12086</v>
@@ -11989,14 +11995,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>92</v>
       </c>
       <c r="K258" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>111899</v>
       </c>
       <c r="M258">
         <v>12086</v>
@@ -12033,14 +12039,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>92</v>
       </c>
       <c r="K259" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>16171</v>
       </c>
       <c r="M259">
         <v>12086</v>
@@ -12077,14 +12083,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>91</v>
       </c>
       <c r="K260" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>3740</v>
       </c>
       <c r="M260">
         <v>12087</v>
@@ -12121,14 +12127,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>91</v>
       </c>
       <c r="K261" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>4831</v>
       </c>
       <c r="M261">
         <v>12087</v>
@@ -12165,14 +12171,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>92</v>
       </c>
       <c r="K262" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>6031</v>
       </c>
       <c r="M262">
         <v>12087</v>
@@ -12209,14 +12215,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>92</v>
       </c>
       <c r="K263" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>979</v>
       </c>
       <c r="M263">
         <v>12087</v>
@@ -12253,14 +12259,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>92</v>
       </c>
       <c r="K264" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>2737</v>
       </c>
       <c r="M264">
         <v>12087</v>
@@ -12297,14 +12303,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>92</v>
       </c>
       <c r="K265" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>1059</v>
       </c>
       <c r="M265">
         <v>12087</v>
@@ -12341,14 +12347,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>91</v>
       </c>
       <c r="K266" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>2061</v>
       </c>
       <c r="M266">
         <v>12089</v>
@@ -12385,14 +12391,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>91</v>
       </c>
       <c r="K267" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>2911</v>
       </c>
       <c r="M267">
         <v>12089</v>
@@ -12429,14 +12435,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>92</v>
       </c>
       <c r="K268" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>9193</v>
       </c>
       <c r="M268">
         <v>12089</v>
@@ -12473,14 +12479,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>92</v>
       </c>
       <c r="K269" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="M269">
         <v>12089</v>
@@ -12517,14 +12523,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>92</v>
       </c>
       <c r="K270" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>3921</v>
       </c>
       <c r="M270">
         <v>12089</v>
@@ -12561,14 +12567,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>92</v>
       </c>
       <c r="K271" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>3401</v>
       </c>
       <c r="M271">
         <v>12089</v>
@@ -12605,14 +12611,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>91</v>
       </c>
       <c r="K272" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>3783</v>
       </c>
       <c r="M272">
         <v>12091</v>
@@ -12649,14 +12655,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>91</v>
       </c>
       <c r="K273" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>4560</v>
       </c>
       <c r="M273">
         <v>12091</v>
@@ -12693,14 +12699,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>92</v>
       </c>
       <c r="K274" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>17771</v>
       </c>
       <c r="M274">
         <v>12091</v>
@@ -12737,14 +12743,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>92</v>
       </c>
       <c r="K275" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>3188</v>
       </c>
       <c r="M275">
         <v>12091</v>
@@ -12781,14 +12787,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>92</v>
       </c>
       <c r="K276" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>8837</v>
       </c>
       <c r="M276">
         <v>12091</v>
@@ -12825,14 +12831,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>92</v>
       </c>
       <c r="K277" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>8202</v>
       </c>
       <c r="M277">
         <v>12091</v>
@@ -12869,14 +12875,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>91</v>
       </c>
       <c r="K278" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>785</v>
       </c>
       <c r="M278">
         <v>12093</v>
@@ -12913,14 +12919,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>91</v>
       </c>
       <c r="K279" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>1151</v>
       </c>
       <c r="M279">
         <v>12093</v>
@@ -12957,14 +12963,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>92</v>
       </c>
       <c r="K280" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>2203</v>
       </c>
       <c r="M280">
         <v>12093</v>
@@ -13001,14 +13007,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>92</v>
       </c>
       <c r="K281" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="M281">
         <v>12093</v>
@@ -13045,14 +13051,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>92</v>
       </c>
       <c r="K282" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>732</v>
       </c>
       <c r="M282">
         <v>12093</v>
@@ -13089,14 +13095,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>92</v>
       </c>
       <c r="K283" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>575</v>
       </c>
       <c r="M283">
         <v>12093</v>
@@ -13133,14 +13139,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>91</v>
       </c>
       <c r="K284" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>36640</v>
       </c>
       <c r="M284">
         <v>12095</v>
@@ -13177,14 +13183,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>91</v>
       </c>
       <c r="K285" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>66655</v>
       </c>
       <c r="M285">
         <v>12095</v>
@@ -13221,14 +13227,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>92</v>
       </c>
       <c r="K286" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>41098</v>
       </c>
       <c r="M286">
         <v>12095</v>
@@ -13265,14 +13271,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>92</v>
       </c>
       <c r="K287" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>7395</v>
       </c>
       <c r="M287">
         <v>12095</v>
@@ -13309,14 +13315,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>92</v>
       </c>
       <c r="K288" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>31851</v>
       </c>
       <c r="M288">
         <v>12095</v>
@@ -13353,14 +13359,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>92</v>
       </c>
       <c r="K289" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>19379</v>
       </c>
       <c r="M289">
         <v>12095</v>
@@ -13397,14 +13403,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>91</v>
       </c>
       <c r="K290" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>7274</v>
       </c>
       <c r="M290">
         <v>12097</v>
@@ -13441,14 +13447,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>91</v>
       </c>
       <c r="K291" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>16513</v>
       </c>
       <c r="M291">
         <v>12097</v>
@@ -13485,14 +13491,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>92</v>
       </c>
       <c r="K292" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>10346</v>
       </c>
       <c r="M292">
         <v>12097</v>
@@ -13529,14 +13535,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>92</v>
       </c>
       <c r="K293" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>924</v>
       </c>
       <c r="M293">
         <v>12097</v>
@@ -13573,14 +13579,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>92</v>
       </c>
       <c r="K294" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>5735</v>
       </c>
       <c r="M294">
         <v>12097</v>
@@ -13617,14 +13623,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>92</v>
       </c>
       <c r="K295" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>4192</v>
       </c>
       <c r="M295">
         <v>12097</v>
@@ -13661,14 +13667,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>91</v>
       </c>
       <c r="K296" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>39315</v>
       </c>
       <c r="M296">
         <v>12099</v>
@@ -13705,14 +13711,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>91</v>
       </c>
       <c r="K297" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>103370</v>
       </c>
       <c r="M297">
         <v>12099</v>
@@ -13749,14 +13755,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>92</v>
       </c>
       <c r="K298" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>66066</v>
       </c>
       <c r="M298">
         <v>12099</v>
@@ -13793,14 +13799,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>92</v>
       </c>
       <c r="K299" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>11938</v>
       </c>
       <c r="M299">
         <v>12099</v>
@@ -13837,14 +13843,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>92</v>
       </c>
       <c r="K300" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>30837</v>
       </c>
       <c r="M300">
         <v>12099</v>
@@ -13881,14 +13887,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>92</v>
       </c>
       <c r="K301" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>15312</v>
       </c>
       <c r="M301">
         <v>12099</v>
@@ -13925,14 +13931,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>91</v>
       </c>
       <c r="K302" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>14494</v>
       </c>
       <c r="M302">
         <v>12101</v>
@@ -13969,14 +13975,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>91</v>
       </c>
       <c r="K303" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>21761</v>
       </c>
       <c r="M303">
         <v>12101</v>
@@ -14013,14 +14019,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>92</v>
       </c>
       <c r="K304" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>33537</v>
       </c>
       <c r="M304">
         <v>12101</v>
@@ -14057,14 +14063,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>92</v>
       </c>
       <c r="K305" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>3831</v>
       </c>
       <c r="M305">
         <v>12101</v>
@@ -14101,14 +14107,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>92</v>
       </c>
       <c r="K306" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>13837</v>
       </c>
       <c r="M306">
         <v>12101</v>
@@ -14145,14 +14151,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>92</v>
       </c>
       <c r="K307" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>12410</v>
       </c>
       <c r="M307">
         <v>12101</v>
@@ -14189,14 +14195,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>91</v>
       </c>
       <c r="K308" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>39743</v>
       </c>
       <c r="M308">
         <v>12103</v>
@@ -14233,14 +14239,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>91</v>
       </c>
       <c r="K309" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>63700</v>
       </c>
       <c r="M309">
         <v>12103</v>
@@ -14277,14 +14283,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>92</v>
       </c>
       <c r="K310" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>61134</v>
       </c>
       <c r="M310">
         <v>12103</v>
@@ -14321,14 +14327,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>92</v>
       </c>
       <c r="K311" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>10974</v>
       </c>
       <c r="M311">
         <v>12103</v>
@@ -14365,14 +14371,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>92</v>
       </c>
       <c r="K312" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>29967</v>
       </c>
       <c r="M312">
         <v>12103</v>
@@ -14409,14 +14415,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>92</v>
       </c>
       <c r="K313" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>21985</v>
       </c>
       <c r="M313">
         <v>12103</v>
@@ -14453,14 +14459,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>91</v>
       </c>
       <c r="K314" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>15474</v>
       </c>
       <c r="M314">
         <v>12105</v>
@@ -14497,14 +14503,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>91</v>
       </c>
       <c r="K315" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>29329</v>
       </c>
       <c r="M315">
         <v>12105</v>
@@ -14541,14 +14547,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>92</v>
       </c>
       <c r="K316" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>33188</v>
       </c>
       <c r="M316">
         <v>12105</v>
@@ -14585,14 +14591,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>92</v>
       </c>
       <c r="K317" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>3836</v>
       </c>
       <c r="M317">
         <v>12105</v>
@@ -14629,14 +14635,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>92</v>
       </c>
       <c r="K318" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>18791</v>
       </c>
       <c r="M318">
         <v>12105</v>
@@ -14673,14 +14679,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>92</v>
       </c>
       <c r="K319" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>15549</v>
       </c>
       <c r="M319">
         <v>12105</v>
@@ -14717,14 +14723,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>91</v>
       </c>
       <c r="K320" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>2748</v>
       </c>
       <c r="M320">
         <v>12107</v>
@@ -14761,14 +14767,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>91</v>
       </c>
       <c r="K321" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>3183</v>
       </c>
       <c r="M321">
         <v>12107</v>
@@ -14805,14 +14811,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>92</v>
       </c>
       <c r="K322" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>5120</v>
       </c>
       <c r="M322">
         <v>12107</v>
@@ -14849,14 +14855,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>92</v>
       </c>
       <c r="K323" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="M323">
         <v>12107</v>
@@ -14893,14 +14899,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>92</v>
       </c>
       <c r="K324" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>1554</v>
       </c>
       <c r="M324">
         <v>12107</v>
@@ -14937,14 +14943,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>92</v>
       </c>
       <c r="K325" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>1673</v>
       </c>
       <c r="M325">
         <v>12107</v>
@@ -14981,14 +14987,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>91</v>
       </c>
       <c r="K326" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>3603</v>
       </c>
       <c r="M326">
         <v>12113</v>
@@ -15025,14 +15031,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327">
-        <v>3</v>
+      <c r="J327" t="s">
+        <v>91</v>
       </c>
       <c r="K327" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>3939</v>
       </c>
       <c r="M327">
         <v>12113</v>
@@ -15069,14 +15075,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>3</v>
+      <c r="J328" t="s">
+        <v>92</v>
       </c>
       <c r="K328" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>16045</v>
       </c>
       <c r="M328">
         <v>12113</v>
@@ -15113,14 +15119,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>3</v>
+      <c r="J329" t="s">
+        <v>92</v>
       </c>
       <c r="K329" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>1957</v>
       </c>
       <c r="M329">
         <v>12113</v>
@@ -15157,14 +15163,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>3</v>
+      <c r="J330" t="s">
+        <v>92</v>
       </c>
       <c r="K330" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>7914</v>
       </c>
       <c r="M330">
         <v>12113</v>
@@ -15201,14 +15207,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331">
-        <v>3</v>
+      <c r="J331" t="s">
+        <v>92</v>
       </c>
       <c r="K331" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>7484</v>
       </c>
       <c r="M331">
         <v>12113</v>
@@ -15245,14 +15251,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-      <c r="J332">
-        <v>3</v>
+      <c r="J332" t="s">
+        <v>91</v>
       </c>
       <c r="K332" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>15777</v>
       </c>
       <c r="M332">
         <v>12115</v>
@@ -15289,14 +15295,14 @@
       <c r="I333">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>3</v>
+      <c r="J333" t="s">
+        <v>91</v>
       </c>
       <c r="K333" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>25882</v>
       </c>
       <c r="M333">
         <v>12115</v>
@@ -15333,14 +15339,14 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>3</v>
+      <c r="J334" t="s">
+        <v>92</v>
       </c>
       <c r="K334" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>34594</v>
       </c>
       <c r="M334">
         <v>12115</v>
@@ -15377,14 +15383,14 @@
       <c r="I335">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3</v>
+      <c r="J335" t="s">
+        <v>92</v>
       </c>
       <c r="K335" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>8101</v>
       </c>
       <c r="M335">
         <v>12115</v>
@@ -15421,14 +15427,14 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>3</v>
+      <c r="J336" t="s">
+        <v>92</v>
       </c>
       <c r="K336" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L336">
-        <v>4</v>
+        <v>17871</v>
       </c>
       <c r="M336">
         <v>12115</v>
@@ -15465,14 +15471,14 @@
       <c r="I337">
         <v>1</v>
       </c>
-      <c r="J337">
-        <v>3</v>
+      <c r="J337" t="s">
+        <v>92</v>
       </c>
       <c r="K337" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>10098</v>
       </c>
       <c r="M337">
         <v>12115</v>
@@ -15509,14 +15515,14 @@
       <c r="I338">
         <v>1</v>
       </c>
-      <c r="J338">
-        <v>3</v>
+      <c r="J338" t="s">
+        <v>91</v>
       </c>
       <c r="K338" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L338">
-        <v>4</v>
+        <v>15101</v>
       </c>
       <c r="M338">
         <v>12117</v>
@@ -15553,14 +15559,14 @@
       <c r="I339">
         <v>1</v>
       </c>
-      <c r="J339">
-        <v>3</v>
+      <c r="J339" t="s">
+        <v>91</v>
       </c>
       <c r="K339" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>22070</v>
       </c>
       <c r="M339">
         <v>12117</v>
@@ -15597,14 +15603,14 @@
       <c r="I340">
         <v>1</v>
       </c>
-      <c r="J340">
-        <v>3</v>
+      <c r="J340" t="s">
+        <v>92</v>
       </c>
       <c r="K340" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>25764</v>
       </c>
       <c r="M340">
         <v>12117</v>
@@ -15641,14 +15647,14 @@
       <c r="I341">
         <v>1</v>
       </c>
-      <c r="J341">
-        <v>3</v>
+      <c r="J341" t="s">
+        <v>92</v>
       </c>
       <c r="K341" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>4344</v>
       </c>
       <c r="M341">
         <v>12117</v>
@@ -15685,14 +15691,14 @@
       <c r="I342">
         <v>1</v>
       </c>
-      <c r="J342">
-        <v>3</v>
+      <c r="J342" t="s">
+        <v>92</v>
       </c>
       <c r="K342" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>17844</v>
       </c>
       <c r="M342">
         <v>12117</v>
@@ -15729,14 +15735,14 @@
       <c r="I343">
         <v>1</v>
       </c>
-      <c r="J343">
-        <v>3</v>
+      <c r="J343" t="s">
+        <v>92</v>
       </c>
       <c r="K343" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>11943</v>
       </c>
       <c r="M343">
         <v>12117</v>
@@ -15773,14 +15779,14 @@
       <c r="I344">
         <v>1</v>
       </c>
-      <c r="J344">
-        <v>3</v>
+      <c r="J344" t="s">
+        <v>91</v>
       </c>
       <c r="K344" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L344">
-        <v>4</v>
+        <v>6954</v>
       </c>
       <c r="M344">
         <v>12109</v>
@@ -15817,14 +15823,14 @@
       <c r="I345">
         <v>1</v>
       </c>
-      <c r="J345">
-        <v>3</v>
+      <c r="J345" t="s">
+        <v>91</v>
       </c>
       <c r="K345" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>9735</v>
       </c>
       <c r="M345">
         <v>12109</v>
@@ -15861,14 +15867,14 @@
       <c r="I346">
         <v>1</v>
       </c>
-      <c r="J346">
-        <v>3</v>
+      <c r="J346" t="s">
+        <v>92</v>
       </c>
       <c r="K346" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>24206</v>
       </c>
       <c r="M346">
         <v>12109</v>
@@ -15905,14 +15911,14 @@
       <c r="I347">
         <v>1</v>
       </c>
-      <c r="J347">
-        <v>3</v>
+      <c r="J347" t="s">
+        <v>92</v>
       </c>
       <c r="K347" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3862</v>
       </c>
       <c r="M347">
         <v>12109</v>
@@ -15949,14 +15955,14 @@
       <c r="I348">
         <v>1</v>
       </c>
-      <c r="J348">
-        <v>3</v>
+      <c r="J348" t="s">
+        <v>92</v>
       </c>
       <c r="K348" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>13703</v>
       </c>
       <c r="M348">
         <v>12109</v>
@@ -15993,14 +15999,14 @@
       <c r="I349">
         <v>1</v>
       </c>
-      <c r="J349">
-        <v>3</v>
+      <c r="J349" t="s">
+        <v>92</v>
       </c>
       <c r="K349" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L349">
-        <v>4</v>
+        <v>7829</v>
       </c>
       <c r="M349">
         <v>12109</v>
@@ -16037,14 +16043,14 @@
       <c r="I350">
         <v>1</v>
       </c>
-      <c r="J350">
-        <v>3</v>
+      <c r="J350" t="s">
+        <v>91</v>
       </c>
       <c r="K350" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>8092</v>
       </c>
       <c r="M350">
         <v>12111</v>
@@ -16081,14 +16087,14 @@
       <c r="I351">
         <v>1</v>
       </c>
-      <c r="J351">
-        <v>3</v>
+      <c r="J351" t="s">
+        <v>91</v>
       </c>
       <c r="K351" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>17555</v>
       </c>
       <c r="M351">
         <v>12111</v>
@@ -16125,14 +16131,14 @@
       <c r="I352">
         <v>1</v>
       </c>
-      <c r="J352">
-        <v>3</v>
+      <c r="J352" t="s">
+        <v>92</v>
       </c>
       <c r="K352" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>18351</v>
       </c>
       <c r="M352">
         <v>12111</v>
@@ -16169,14 +16175,14 @@
       <c r="I353">
         <v>1</v>
       </c>
-      <c r="J353">
-        <v>3</v>
+      <c r="J353" t="s">
+        <v>92</v>
       </c>
       <c r="K353" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L353">
-        <v>4</v>
+        <v>2095</v>
       </c>
       <c r="M353">
         <v>12111</v>
@@ -16213,14 +16219,14 @@
       <c r="I354">
         <v>1</v>
       </c>
-      <c r="J354">
-        <v>3</v>
+      <c r="J354" t="s">
+        <v>92</v>
       </c>
       <c r="K354" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L354">
-        <v>4</v>
+        <v>6201</v>
       </c>
       <c r="M354">
         <v>12111</v>
@@ -16257,14 +16263,14 @@
       <c r="I355">
         <v>1</v>
       </c>
-      <c r="J355">
-        <v>3</v>
+      <c r="J355" t="s">
+        <v>92</v>
       </c>
       <c r="K355" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L355">
-        <v>4</v>
+        <v>3971</v>
       </c>
       <c r="M355">
         <v>12111</v>
@@ -16301,14 +16307,14 @@
       <c r="I356">
         <v>1</v>
       </c>
-      <c r="J356">
-        <v>3</v>
+      <c r="J356" t="s">
+        <v>91</v>
       </c>
       <c r="K356" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L356">
-        <v>4</v>
+        <v>3023</v>
       </c>
       <c r="M356">
         <v>12119</v>
@@ -16345,14 +16351,14 @@
       <c r="I357">
         <v>1</v>
       </c>
-      <c r="J357">
-        <v>3</v>
+      <c r="J357" t="s">
+        <v>91</v>
       </c>
       <c r="K357" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L357">
-        <v>4</v>
+        <v>7023</v>
       </c>
       <c r="M357">
         <v>12119</v>
@@ -16389,14 +16395,14 @@
       <c r="I358">
         <v>1</v>
       </c>
-      <c r="J358">
-        <v>3</v>
+      <c r="J358" t="s">
+        <v>92</v>
       </c>
       <c r="K358" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>17770</v>
       </c>
       <c r="M358">
         <v>12119</v>
@@ -16433,14 +16439,14 @@
       <c r="I359">
         <v>1</v>
       </c>
-      <c r="J359">
-        <v>3</v>
+      <c r="J359" t="s">
+        <v>92</v>
       </c>
       <c r="K359" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L359">
-        <v>4</v>
+        <v>2376</v>
       </c>
       <c r="M359">
         <v>12119</v>
@@ -16477,14 +16483,14 @@
       <c r="I360">
         <v>1</v>
       </c>
-      <c r="J360">
-        <v>3</v>
+      <c r="J360" t="s">
+        <v>92</v>
       </c>
       <c r="K360" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>7717</v>
       </c>
       <c r="M360">
         <v>12119</v>
@@ -16521,14 +16527,14 @@
       <c r="I361">
         <v>1</v>
       </c>
-      <c r="J361">
-        <v>3</v>
+      <c r="J361" t="s">
+        <v>92</v>
       </c>
       <c r="K361" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>4418</v>
       </c>
       <c r="M361">
         <v>12119</v>
@@ -16565,14 +16571,14 @@
       <c r="I362">
         <v>1</v>
       </c>
-      <c r="J362">
-        <v>3</v>
+      <c r="J362" t="s">
+        <v>91</v>
       </c>
       <c r="K362" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>1551</v>
       </c>
       <c r="M362">
         <v>12121</v>
@@ -16609,14 +16615,14 @@
       <c r="I363">
         <v>1</v>
       </c>
-      <c r="J363">
-        <v>3</v>
+      <c r="J363" t="s">
+        <v>91</v>
       </c>
       <c r="K363" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>1476</v>
       </c>
       <c r="M363">
         <v>12121</v>
@@ -16653,14 +16659,14 @@
       <c r="I364">
         <v>1</v>
       </c>
-      <c r="J364">
-        <v>3</v>
+      <c r="J364" t="s">
+        <v>92</v>
       </c>
       <c r="K364" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L364">
-        <v>4</v>
+        <v>2845</v>
       </c>
       <c r="M364">
         <v>12121</v>
@@ -16697,14 +16703,14 @@
       <c r="I365">
         <v>1</v>
       </c>
-      <c r="J365">
-        <v>3</v>
+      <c r="J365" t="s">
+        <v>92</v>
       </c>
       <c r="K365" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="M365">
         <v>12121</v>
@@ -16741,14 +16747,14 @@
       <c r="I366">
         <v>1</v>
       </c>
-      <c r="J366">
-        <v>3</v>
+      <c r="J366" t="s">
+        <v>92</v>
       </c>
       <c r="K366" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L366">
-        <v>4</v>
+        <v>859</v>
       </c>
       <c r="M366">
         <v>12121</v>
@@ -16785,14 +16791,14 @@
       <c r="I367">
         <v>1</v>
       </c>
-      <c r="J367">
-        <v>3</v>
+      <c r="J367" t="s">
+        <v>92</v>
       </c>
       <c r="K367" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>1646</v>
       </c>
       <c r="M367">
         <v>12121</v>
@@ -16829,14 +16835,14 @@
       <c r="I368">
         <v>1</v>
       </c>
-      <c r="J368">
-        <v>3</v>
+      <c r="J368" t="s">
+        <v>91</v>
       </c>
       <c r="K368" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>908</v>
       </c>
       <c r="M368">
         <v>12123</v>
@@ -16873,14 +16879,14 @@
       <c r="I369">
         <v>1</v>
       </c>
-      <c r="J369">
-        <v>3</v>
+      <c r="J369" t="s">
+        <v>91</v>
       </c>
       <c r="K369" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>984</v>
       </c>
       <c r="M369">
         <v>12123</v>
@@ -16917,14 +16923,14 @@
       <c r="I370">
         <v>1</v>
       </c>
-      <c r="J370">
-        <v>3</v>
+      <c r="J370" t="s">
+        <v>92</v>
       </c>
       <c r="K370" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>1204</v>
       </c>
       <c r="M370">
         <v>12123</v>
@@ -16961,14 +16967,14 @@
       <c r="I371">
         <v>1</v>
       </c>
-      <c r="J371">
-        <v>3</v>
+      <c r="J371" t="s">
+        <v>92</v>
       </c>
       <c r="K371" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L371">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M371">
         <v>12123</v>
@@ -17005,14 +17011,14 @@
       <c r="I372">
         <v>1</v>
       </c>
-      <c r="J372">
-        <v>3</v>
+      <c r="J372" t="s">
+        <v>92</v>
       </c>
       <c r="K372" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="M372">
         <v>12123</v>
@@ -17049,14 +17055,14 @@
       <c r="I373">
         <v>1</v>
       </c>
-      <c r="J373">
-        <v>3</v>
+      <c r="J373" t="s">
+        <v>92</v>
       </c>
       <c r="K373" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L373">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="M373">
         <v>12123</v>
@@ -17093,14 +17099,14 @@
       <c r="I374">
         <v>1</v>
       </c>
-      <c r="J374">
-        <v>3</v>
+      <c r="J374" t="s">
+        <v>91</v>
       </c>
       <c r="K374" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L374">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="M374">
         <v>12125</v>
@@ -17137,14 +17143,14 @@
       <c r="I375">
         <v>1</v>
       </c>
-      <c r="J375">
-        <v>3</v>
+      <c r="J375" t="s">
+        <v>91</v>
       </c>
       <c r="K375" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="M375">
         <v>12125</v>
@@ -17181,14 +17187,14 @@
       <c r="I376">
         <v>1</v>
       </c>
-      <c r="J376">
-        <v>3</v>
+      <c r="J376" t="s">
+        <v>92</v>
       </c>
       <c r="K376" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>720</v>
       </c>
       <c r="M376">
         <v>12125</v>
@@ -17225,14 +17231,14 @@
       <c r="I377">
         <v>1</v>
       </c>
-      <c r="J377">
-        <v>3</v>
+      <c r="J377" t="s">
+        <v>92</v>
       </c>
       <c r="K377" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M377">
         <v>12125</v>
@@ -17269,14 +17275,14 @@
       <c r="I378">
         <v>1</v>
       </c>
-      <c r="J378">
-        <v>3</v>
+      <c r="J378" t="s">
+        <v>92</v>
       </c>
       <c r="K378" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="M378">
         <v>12125</v>
@@ -17313,14 +17319,14 @@
       <c r="I379">
         <v>1</v>
       </c>
-      <c r="J379">
-        <v>3</v>
+      <c r="J379" t="s">
+        <v>92</v>
       </c>
       <c r="K379" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="M379">
         <v>12125</v>
@@ -17357,14 +17363,14 @@
       <c r="I380">
         <v>1</v>
       </c>
-      <c r="J380">
-        <v>3</v>
+      <c r="J380" t="s">
+        <v>91</v>
       </c>
       <c r="K380" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L380">
-        <v>4</v>
+        <v>16171</v>
       </c>
       <c r="M380">
         <v>12127</v>
@@ -17401,14 +17407,14 @@
       <c r="I381">
         <v>1</v>
       </c>
-      <c r="J381">
-        <v>3</v>
+      <c r="J381" t="s">
+        <v>91</v>
       </c>
       <c r="K381" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>26277</v>
       </c>
       <c r="M381">
         <v>12127</v>
@@ -17445,14 +17451,14 @@
       <c r="I382">
         <v>1</v>
       </c>
-      <c r="J382">
-        <v>3</v>
+      <c r="J382" t="s">
+        <v>92</v>
       </c>
       <c r="K382" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>34168</v>
       </c>
       <c r="M382">
         <v>12127</v>
@@ -17489,14 +17495,14 @@
       <c r="I383">
         <v>1</v>
       </c>
-      <c r="J383">
-        <v>3</v>
+      <c r="J383" t="s">
+        <v>92</v>
       </c>
       <c r="K383" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L383">
-        <v>4</v>
+        <v>3968</v>
       </c>
       <c r="M383">
         <v>12127</v>
@@ -17533,14 +17539,14 @@
       <c r="I384">
         <v>1</v>
       </c>
-      <c r="J384">
-        <v>3</v>
+      <c r="J384" t="s">
+        <v>92</v>
       </c>
       <c r="K384" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L384">
-        <v>4</v>
+        <v>13494</v>
       </c>
       <c r="M384">
         <v>12127</v>
@@ -17577,14 +17583,14 @@
       <c r="I385">
         <v>1</v>
       </c>
-      <c r="J385">
-        <v>3</v>
+      <c r="J385" t="s">
+        <v>92</v>
       </c>
       <c r="K385" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L385">
-        <v>4</v>
+        <v>9916</v>
       </c>
       <c r="M385">
         <v>12127</v>
@@ -17621,14 +17627,14 @@
       <c r="I386">
         <v>1</v>
       </c>
-      <c r="J386">
-        <v>3</v>
+      <c r="J386" t="s">
+        <v>91</v>
       </c>
       <c r="K386" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L386">
-        <v>4</v>
+        <v>1425</v>
       </c>
       <c r="M386">
         <v>12129</v>
@@ -17665,14 +17671,14 @@
       <c r="I387">
         <v>1</v>
       </c>
-      <c r="J387">
-        <v>3</v>
+      <c r="J387" t="s">
+        <v>91</v>
       </c>
       <c r="K387" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>1660</v>
       </c>
       <c r="M387">
         <v>12129</v>
@@ -17709,14 +17715,14 @@
       <c r="I388">
         <v>1</v>
       </c>
-      <c r="J388">
-        <v>3</v>
+      <c r="J388" t="s">
+        <v>92</v>
       </c>
       <c r="K388" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>1665</v>
       </c>
       <c r="M388">
         <v>12129</v>
@@ -17753,14 +17759,14 @@
       <c r="I389">
         <v>1</v>
       </c>
-      <c r="J389">
-        <v>3</v>
+      <c r="J389" t="s">
+        <v>92</v>
       </c>
       <c r="K389" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L389">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="M389">
         <v>12129</v>
@@ -17797,14 +17803,14 @@
       <c r="I390">
         <v>1</v>
       </c>
-      <c r="J390">
-        <v>3</v>
+      <c r="J390" t="s">
+        <v>92</v>
       </c>
       <c r="K390" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L390">
-        <v>4</v>
+        <v>587</v>
       </c>
       <c r="M390">
         <v>12129</v>
@@ -17841,14 +17847,14 @@
       <c r="I391">
         <v>1</v>
       </c>
-      <c r="J391">
-        <v>3</v>
+      <c r="J391" t="s">
+        <v>92</v>
       </c>
       <c r="K391" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L391">
-        <v>4</v>
+        <v>1320</v>
       </c>
       <c r="M391">
         <v>12129</v>
@@ -17885,14 +17891,14 @@
       <c r="I392">
         <v>1</v>
       </c>
-      <c r="J392">
-        <v>3</v>
+      <c r="J392" t="s">
+        <v>91</v>
       </c>
       <c r="K392" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L392">
-        <v>4</v>
+        <v>1362</v>
       </c>
       <c r="M392">
         <v>12131</v>
@@ -17929,14 +17935,14 @@
       <c r="I393">
         <v>1</v>
       </c>
-      <c r="J393">
-        <v>3</v>
+      <c r="J393" t="s">
+        <v>91</v>
       </c>
       <c r="K393" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L393">
-        <v>4</v>
+        <v>1516</v>
       </c>
       <c r="M393">
         <v>12131</v>
@@ -17973,14 +17979,14 @@
       <c r="I394">
         <v>1</v>
       </c>
-      <c r="J394">
-        <v>3</v>
+      <c r="J394" t="s">
+        <v>92</v>
       </c>
       <c r="K394" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>6651</v>
       </c>
       <c r="M394">
         <v>12131</v>
@@ -18017,14 +18023,14 @@
       <c r="I395">
         <v>1</v>
       </c>
-      <c r="J395">
-        <v>3</v>
+      <c r="J395" t="s">
+        <v>92</v>
       </c>
       <c r="K395" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L395">
-        <v>4</v>
+        <v>878</v>
       </c>
       <c r="M395">
         <v>12131</v>
@@ -18061,14 +18067,14 @@
       <c r="I396">
         <v>1</v>
       </c>
-      <c r="J396">
-        <v>3</v>
+      <c r="J396" t="s">
+        <v>92</v>
       </c>
       <c r="K396" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L396">
-        <v>4</v>
+        <v>2404</v>
       </c>
       <c r="M396">
         <v>12131</v>
@@ -18105,14 +18111,14 @@
       <c r="I397">
         <v>1</v>
       </c>
-      <c r="J397">
-        <v>3</v>
+      <c r="J397" t="s">
+        <v>92</v>
       </c>
       <c r="K397" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L397">
-        <v>4</v>
+        <v>2549</v>
       </c>
       <c r="M397">
         <v>12131</v>
@@ -18149,14 +18155,14 @@
       <c r="I398">
         <v>1</v>
       </c>
-      <c r="J398">
-        <v>3</v>
+      <c r="J398" t="s">
+        <v>91</v>
       </c>
       <c r="K398" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L398">
-        <v>4</v>
+        <v>782</v>
       </c>
       <c r="M398">
         <v>12133</v>
@@ -18193,14 +18199,14 @@
       <c r="I399">
         <v>1</v>
       </c>
-      <c r="J399">
-        <v>3</v>
+      <c r="J399" t="s">
+        <v>91</v>
       </c>
       <c r="K399" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L399">
-        <v>4</v>
+        <v>859</v>
       </c>
       <c r="M399">
         <v>12133</v>
@@ -18237,14 +18243,14 @@
       <c r="I400">
         <v>1</v>
       </c>
-      <c r="J400">
-        <v>3</v>
+      <c r="J400" t="s">
+        <v>92</v>
       </c>
       <c r="K400" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L400">
-        <v>4</v>
+        <v>1740</v>
       </c>
       <c r="M400">
         <v>12133</v>
@@ -18281,14 +18287,14 @@
       <c r="I401">
         <v>1</v>
       </c>
-      <c r="J401">
-        <v>3</v>
+      <c r="J401" t="s">
+        <v>92</v>
       </c>
       <c r="K401" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L401">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="M401">
         <v>12133</v>
@@ -18325,14 +18331,14 @@
       <c r="I402">
         <v>1</v>
       </c>
-      <c r="J402">
-        <v>3</v>
+      <c r="J402" t="s">
+        <v>92</v>
       </c>
       <c r="K402" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L402">
-        <v>4</v>
+        <v>616</v>
       </c>
       <c r="M402">
         <v>12133</v>
@@ -18369,14 +18375,14 @@
       <c r="I403">
         <v>1</v>
       </c>
-      <c r="J403">
-        <v>3</v>
+      <c r="J403" t="s">
+        <v>92</v>
       </c>
       <c r="K403" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L403">
-        <v>4</v>
+        <v>1252</v>
       </c>
       <c r="M403">
         <v>12133</v>
